--- a/DISBURSEMENT VOUCHER.xlsx
+++ b/DISBURSEMENT VOUCHER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jajrc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF4A3C7-C54D-40DF-822C-5EA3D692199E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B75421-0889-4FE2-A17F-F31E54E67F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DV-PR" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t xml:space="preserve">ELAINE MARICRIS AGUILAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order No. </t>
   </si>
 </sst>
 </file>
@@ -524,21 +527,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -641,21 +629,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -843,6 +816,28 @@
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,194 +847,85 @@
   </cellStyleXfs>
   <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1049,28 +935,137 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1400,7 +1395,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1415,376 +1410,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="79"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="32"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="16.5">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="82" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="85"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="85"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="84"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="85"/>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="5" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="84"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="39"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="39"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="76" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="32"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="54"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="54"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="54"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="54"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="48"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
     </row>
     <row r="20" spans="1:6" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A20" s="57"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
     </row>
     <row r="21" spans="1:6" ht="60" customHeight="1">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="65" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="66"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="68" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="26" t="s">
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="64"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="61">
         <v>46065</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="25"/>
+      <c r="D27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="61">
         <v>46065</v>
       </c>
-      <c r="F27" s="32"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="11" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="76"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="11" t="s">
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="37"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="11" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="44"/>
-      <c r="F31" s="39"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="37"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A32" s="43"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="11" t="s">
+      <c r="A32" s="80"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="39"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="37"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="35"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="16" t="s">
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="22"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="39" spans="1:6" ht="15.75" customHeight="1"/>
@@ -2751,33 +2748,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F20"/>
-    <mergeCell ref="A11:D20"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="D25:F25"/>
@@ -2791,6 +2761,33 @@
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F20"/>
+    <mergeCell ref="A11:D20"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
